--- a/Finances-master.xlsx
+++ b/Finances-master.xlsx
@@ -1,47 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantiller/personal-finance-project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E973AA7-FE5C-D743-BEC2-AF414AA99E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="m1-monthly" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="m1-monthly" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="8-2024.xlxs" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">monthly </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -394,18 +441,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">monthly </t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -414,13 +467,854 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>expenses</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>grocery</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>restaurants</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>venmo</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>rent</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>trasportation</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>misc</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>poker</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>subscriptions</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Category Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>grocery</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>restaurants</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>venmo</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>rent</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>trasportation</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>misc</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>poker</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Total Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>149.89</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>64.68000000000001</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9405.309999999998</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9735.139999999996</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>60.28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="J6" t="n">
+        <v>174.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J9" t="n">
+        <v>238.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="J10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="J14" t="n">
+        <v>19.12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="J15" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="J16" t="n">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="J17" t="n">
+        <v>16.56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="J18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="J19" t="n">
+        <v>25.77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="J20" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="J21" t="n">
+        <v>18.17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="J22" t="n">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="J23" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="J24" t="n">
+        <v>8.949999999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="J25" t="n">
+        <v>8.960000000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="J26" t="n">
+        <v>204.53</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="J27" t="n">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="J28" t="n">
+        <v>27.72</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="J29" t="n">
+        <v>34.89</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="J30" t="n">
+        <v>167.66</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="J31" t="n">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="J32" t="n">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="J33" t="n">
+        <v>95.84999999999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="J34" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="J35" t="n">
+        <v>43.04</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="J36" t="n">
+        <v>19.91</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="J37" t="n">
+        <v>90.37</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="J38" t="n">
+        <v>22.29</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="J39" t="n">
+        <v>40.88</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="J40" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="J41" t="n">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="J42" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="J43" t="n">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="J44" t="n">
+        <v>16.65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="J45" t="n">
+        <v>16.81</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="J46" t="n">
+        <v>155.39</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="J47" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="J48" t="n">
+        <v>70.47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="J49" t="n">
+        <v>152.66</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="J50" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="J51" t="n">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="J52" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="J53" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="J54" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="J55" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="J56" t="n">
+        <v>98.15000000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="J57" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="J58" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="J59" t="n">
+        <v>12.03</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="J60" t="n">
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="J61" t="n">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="J62" t="n">
+        <v>70.73999999999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="J63" t="n">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="J64" t="n">
+        <v>35.19</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="J65" t="n">
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="J66" t="n">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="J67" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="J68" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="J69" t="n">
+        <v>18.26</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="J70" t="n">
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="J71" t="n">
+        <v>836.12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="J72" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="J73" t="n">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="J74" t="n">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="J75" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="J76" t="n">
+        <v>98.18000000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="J77" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="J78" t="n">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="J79" t="n">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="J80" t="n">
+        <v>18.78</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="J81" t="n">
+        <v>44.35</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="J82" t="n">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="J83" t="n">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="J84" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="J85" t="n">
+        <v>44.24</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="J86" t="n">
+        <v>20.31</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="J87" t="n">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="J88" t="n">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="J89" t="n">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="J90" t="n">
+        <v>20.42</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="J91" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="J92" t="n">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="J93" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="J94" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="J95" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="J97" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="J98" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="J99" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="J100" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="J101" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="J102" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="J103" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="J104" t="n">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="J105" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="J106" t="n">
+        <v>23.26</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="J107" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="J108" t="n">
+        <v>100.09</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="J109" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="J110" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="J111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="J112" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="J113" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="J114" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="J115" t="n">
+        <v>104.59</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="J116" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="J117" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="J118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="J119" t="n">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="J120" t="n">
+        <v>2174.99</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="J121" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>